--- a/biology/Botanique/Parc_des_Chaprais/Parc_des_Chaprais.xlsx
+++ b/biology/Botanique/Parc_des_Chaprais/Parc_des_Chaprais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc des Chaprais est un parc de Besançon situé dans le quartier des Chaprais.
@@ -512,11 +524,13 @@
           <t>Donation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La parc est donné à la ville de Besançon en 1978 par André Millot, ancien ambassadeur de France[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La parc est donné à la ville de Besançon en 1978 par André Millot, ancien ambassadeur de France.
 Le terrain arboré sis 4, rue de l’Église a 63 ares de superficie. La donation est faite sous réserve des obligations et interdictions suivantes : 
-« Le terrain restera toujours un espace vert ouvert au public ; Cet espace vert devra porter le nom de « Jardin des Chaprais » ou de « Jardin Public des Chaprais », à l’exclusion de tout autre appellation[4]. Il ne sera jamais utilisé comme parc de stationnement, même partiellement. Aucune construction, même légère (stands, tentes, baraques…) ne pourra être édifiée ni en surface, ni en sous-sol. L’abri de jardin existant pourra être conservé et remis en état... »[5].
+« Le terrain restera toujours un espace vert ouvert au public ; Cet espace vert devra porter le nom de « Jardin des Chaprais » ou de « Jardin Public des Chaprais », à l’exclusion de tout autre appellation. Il ne sera jamais utilisé comme parc de stationnement, même partiellement. Aucune construction, même légère (stands, tentes, baraques…) ne pourra être édifiée ni en surface, ni en sous-sol. L’abri de jardin existant pourra être conservé et remis en état... ».
 En 2002, à la demande de sa fille, une plaque commémorative est dévoilée afin de remercier le donateur.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est avec ses espaces naturels comme le parc des Chaprais  que Besançon peut prétendre être l'une des premières villes vertes de France. Le parc arboré, situé dans un quartier résidentiel, dispose d’une bonne quiétude étant éloigné des bruits de la circulation. Les habitants du quartier et notamment les familles viennent  y chercher le calme. Parmi les arbres présents sur le site se trouvent : un mûrier, un châtaignier, un séquoia, un pin de l’Himalaya. Le parc est accessible aux personnes à mobilité réduite et dispose d’un horaire d’ouverture variable selon les saisons.
 </t>
